--- a/GG-10-12/GG10-12Answers.xlsx
+++ b/GG-10-12/GG10-12Answers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Slide Title</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>least complicated</t>
+  </si>
+  <si>
+    <t>Trial M</t>
+  </si>
+  <si>
+    <t>Trial N</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,6 +189,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -516,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -562,96 +573,110 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46" customHeight="1">
+    <row r="4" spans="1:3" ht="39" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="46" customHeight="1">
+    <row r="5" spans="1:3" ht="39" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="46" customHeight="1">
+    <row r="6" spans="1:3" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="47" customHeight="1">
+    <row r="7" spans="1:3" ht="39" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="47" customHeight="1">
+    <row r="8" spans="1:3" ht="39" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="44" customHeight="1">
+    <row r="9" spans="1:3" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="46" customHeight="1">
+    <row r="10" spans="1:3" ht="39" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="48" customHeight="1">
+    <row r="11" spans="1:3" ht="39" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="46" customHeight="1">
+    <row r="12" spans="1:3" ht="39" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="44" customHeight="1">
+    <row r="13" spans="1:3" ht="39" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="46" customHeight="1">
+    <row r="14" spans="1:3" ht="39" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="47" customHeight="1">
+    <row r="15" spans="1:3" ht="39" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="53" customHeight="1">
+    <row r="16" spans="1:3" ht="39" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="39" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="39" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
